--- a/biology/Botanique/Diurideae/Diurideae.xlsx
+++ b/biology/Botanique/Diurideae/Diurideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diurideae est une tribu d'orchidées de la sous-famille des Orchidoideae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type est : Diuris Sm., Trans. Linn. Soc. London 4: 222 (1798)
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces sont trouvées en Asie.
 </t>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sous-tribus
-Acianthinae
+          <t>Sous-tribus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acianthinae
 Caladeniinae
 Cryptostylidinae
 Diuridinae
@@ -584,9 +605,43 @@
 Megastylidinae
 Prasophyllinae
 Rhizanthellinae
-Thelymitrinae
-Aperçu des genres
-Selon Chase et al. (2015), les genres acceptés sont les suivants[1]:
+Thelymitrinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diurideae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diurideae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des sous-taxons</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aperçu des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Chase et al. (2015), les genres acceptés sont les suivants:
 Acianthus R.Br.
 Adenochilus Hook.f.
 Aporostylis Rupp &amp; Hatch
@@ -599,7 +654,7 @@
 Coilochilus Schltr.
 Corybas Salisb.
 Cryptostylis R.Br.
-Cyanicula Hopper &amp; A.P.Brown = Caladenia[2]
+Cyanicula Hopper &amp; A.P.Brown = Caladenia
 Cyrtostylis R.Br.
 Diuris Sm.
 Drakaea Lindl.
